--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 1 (35, 1, 31, 14, 19)/MDD 9 (4, 32, 48, 44, 31)/ANN_128nodes_Uniform0.05Virtual_Control(35, 1, 31, 14, 19)_MDD(4, 32, 48, 44, 31)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 1 (35, 1, 31, 14, 19)/MDD 9 (4, 32, 48, 44, 31)/ANN_128nodes_Uniform0.05Virtual_Control(35, 1, 31, 14, 19)_MDD(4, 32, 48, 44, 31)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9601213065121007</v>
+        <v>0.9999431820006929</v>
       </c>
       <c r="E2">
-        <v>0.9601213065121007</v>
+        <v>0.9999431820006929</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -467,13 +467,13 @@
         <v>7</v>
       </c>
       <c r="C3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0.8301726208291124</v>
+        <v>0.002241240459353195</v>
       </c>
       <c r="E3">
-        <v>0.8301726208291124</v>
+        <v>0.002241240459353195</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>2.989983410971788E-08</v>
+        <v>0.008908871094672628</v>
       </c>
       <c r="E4">
-        <v>2.989983410971788E-08</v>
+        <v>0.008908871094672628</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>1.047722239900775E-10</v>
+        <v>5.546239393289819E-08</v>
       </c>
       <c r="E5">
-        <v>1.047722239900775E-10</v>
+        <v>5.546239393289819E-08</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.01010664880661732</v>
+        <v>0.001893309186933003</v>
       </c>
       <c r="E6">
-        <v>0.01010664880661732</v>
+        <v>0.001893309186933003</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0006178385220178056</v>
+        <v>0.008514477086576482</v>
       </c>
       <c r="E7">
-        <v>0.9993821614779822</v>
+        <v>0.9914855229134235</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9999984349541549</v>
+        <v>0.9995097126004243</v>
       </c>
       <c r="E8">
-        <v>1.565045845142166E-06</v>
+        <v>0.000490287399575684</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>4.440892098500626E-16</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.136388642876344E-07</v>
+        <v>3.257435380001836E-10</v>
       </c>
       <c r="E10">
-        <v>0.9999998863611357</v>
+        <v>0.9999999996742565</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,16 +582,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.9809930711843039</v>
+        <v>0.9985041183076397</v>
       </c>
       <c r="E11">
-        <v>0.0190069288156961</v>
+        <v>0.001495881692360257</v>
       </c>
       <c r="F11">
-        <v>2.840375661849976</v>
+        <v>3.640163421630859</v>
       </c>
       <c r="G11">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
